--- a/ATUReports/Results/Run_18/(ATUReports) Run_18.xlsx
+++ b/ATUReports/Results/Run_18/(ATUReports) Run_18.xlsx
@@ -11,12 +11,13 @@
     <sheet name="ATU_TC_1" r:id="rId5" sheetId="3"/>
     <sheet name="ATU_TC_2" r:id="rId6" sheetId="4"/>
     <sheet name="ATU_TC_3" r:id="rId7" sheetId="5"/>
+    <sheet name="ATU_TC_4" r:id="rId8" sheetId="6"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="264">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -75,22 +76,31 @@
     <t>ATU_TC_1</t>
   </si>
   <si>
-    <t>UpdateVM_NewYork_VMWare_Dev84</t>
-  </si>
-  <si>
-    <t>103 Sec</t>
+    <t>UpdateVM_AddUser</t>
+  </si>
+  <si>
+    <t>108 Sec</t>
   </si>
   <si>
     <t>ATU_TC_2</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>100 Sec</t>
+  </si>
+  <si>
+    <t>ATU_TC_3</t>
+  </si>
+  <si>
     <t>cNetLogoutScenario</t>
   </si>
   <si>
     <t>3 Sec</t>
   </si>
   <si>
-    <t>ATU_TC_3</t>
+    <t>ATU_TC_4</t>
   </si>
   <si>
     <t>Step Description</t>
@@ -123,7 +133,7 @@
     <t>URL Launched successfully</t>
   </si>
   <si>
-    <t>591</t>
+    <t>675</t>
   </si>
   <si>
     <t>Swicthing to Main Frame</t>
@@ -138,580 +148,667 @@
     <t>Mainframe actitivited</t>
   </si>
   <si>
+    <t>247 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Username</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>Username should be clicked</t>
+  </si>
+  <si>
+    <t>UserName clicked successfully</t>
+  </si>
+  <si>
+    <t>286 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passing value in to username</t>
+  </si>
+  <si>
+    <t>maneeshn</t>
+  </si>
+  <si>
+    <t>Username should be entered</t>
+  </si>
+  <si>
+    <t>Username should be passed successfully</t>
+  </si>
+  <si>
+    <t>210 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Password</t>
+  </si>
+  <si>
+    <t>user_password</t>
+  </si>
+  <si>
+    <t>Password should be clicked</t>
+  </si>
+  <si>
+    <t>Password clicked successfully</t>
+  </si>
+  <si>
+    <t>251 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passing value in to Password</t>
+  </si>
+  <si>
+    <t>Maneeshnama@6468</t>
+  </si>
+  <si>
+    <t>Password should be entered</t>
+  </si>
+  <si>
+    <t>Password should be passed successfully</t>
+  </si>
+  <si>
+    <t>271 Milli Sec</t>
+  </si>
+  <si>
+    <t>Click on Login button</t>
+  </si>
+  <si>
+    <t>sysverb_login</t>
+  </si>
+  <si>
+    <t>Login button should be clicked</t>
+  </si>
+  <si>
+    <t>Login button clicked succesfully</t>
+  </si>
+  <si>
+    <t>4 Sec</t>
+  </si>
+  <si>
+    <t>Go To TestSuite Sheet</t>
+  </si>
+  <si>
+    <t>2 Sec</t>
+  </si>
+  <si>
+    <t>Passed AIMS in FilterNavigator</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>Find AIMS in search Navigator</t>
+  </si>
+  <si>
+    <t>Search Successful</t>
+  </si>
+  <si>
+    <t>clicked on launch Application</t>
+  </si>
+  <si>
+    <t>330b36b5134e7600aee43d7ed144b09a</t>
+  </si>
+  <si>
+    <t>Launch AIMS Application</t>
+  </si>
+  <si>
+    <t>Clicked Successful</t>
+  </si>
+  <si>
+    <t>95 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked the UpdateVM</t>
+  </si>
+  <si>
+    <t>.//*[@id='xea03cb9a0ff53600d6254c6be1050e89']/div/div[2]/a[2]</t>
+  </si>
+  <si>
+    <t>Select UpdateVM from AIMS</t>
+  </si>
+  <si>
+    <t>Successfully Selected</t>
+  </si>
+  <si>
+    <t>Type of ServerOperation Field Choosen</t>
+  </si>
+  <si>
+    <t>IO:eba29ee80f0a7e00d6254c6be1050ec2</t>
+  </si>
+  <si>
+    <t>Select Update Field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ServerOperation field was successfully selected </t>
+  </si>
+  <si>
+    <t>6 Sec</t>
+  </si>
+  <si>
+    <t>Selected Project lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:32a1cc970fa97200d6254c6be1050e8d']</t>
+  </si>
+  <si>
+    <t>Hit the Project LookupField</t>
+  </si>
+  <si>
+    <t>Successfully selected</t>
+  </si>
+  <si>
+    <t>444 Milli Sec</t>
+  </si>
+  <si>
+    <t>1 Sec</t>
+  </si>
+  <si>
+    <t>Selected PrimaryDataCenter lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:cbd3081b0fa97200d6254c6be1050e43']</t>
+  </si>
+  <si>
+    <t>Hit the PrimaryDataCenter LookupField</t>
+  </si>
+  <si>
+    <t>PrimaryDataCenterServerOperation field was successfully selected</t>
+  </si>
+  <si>
+    <t>377 Milli Sec</t>
+  </si>
+  <si>
+    <t>Dallas Was Selected</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Choose one PrimarydataCenter</t>
+  </si>
+  <si>
+    <t>162 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected PrimaryCloudPlatform lookup field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:fbb4449b0fa97200d6254c6be1050e58']</t>
+  </si>
+  <si>
+    <t>Hit the PrimaryCloudPlatform LookupField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PrimaryCloudPlatform field was successfully selected </t>
+  </si>
+  <si>
+    <t>668 Milli Sec</t>
+  </si>
+  <si>
+    <t>Choosen PrimaryCloud Field</t>
+  </si>
+  <si>
+    <t>OpenStack</t>
+  </si>
+  <si>
+    <t>Choose PrimaryCloud Field</t>
+  </si>
+  <si>
+    <t>172 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected cluster field</t>
+  </si>
+  <si>
+    <t>.//*[@id='lookup.IO:ef95dc9b0fe97200d6254c6be1050e4a']</t>
+  </si>
+  <si>
+    <t>click on Cluster Lookup field</t>
+  </si>
+  <si>
+    <t>Successfully hit the field</t>
+  </si>
+  <si>
+    <t>722 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected OpenStack-Aims</t>
+  </si>
+  <si>
+    <t>OpenStack-AIMS-CNET-01</t>
+  </si>
+  <si>
+    <t>Select one Cluster</t>
+  </si>
+  <si>
+    <t>Cluster select Successful</t>
+  </si>
+  <si>
+    <t>600 Milli Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected Server field </t>
+  </si>
+  <si>
+    <t>//a[@id='lookup.IO:92e0e0570f2d7200d6254c6be1050e8d']</t>
+  </si>
+  <si>
+    <t>click on Server Lookup field</t>
+  </si>
+  <si>
+    <t>753 Milli Sec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selected DEV-LNX-APACHE-63 </t>
+  </si>
+  <si>
+    <t>DEV-LNX-APACHE-59</t>
+  </si>
+  <si>
+    <t>Select One Server</t>
+  </si>
+  <si>
+    <t>Server Select Successful</t>
+  </si>
+  <si>
+    <t>150 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked User Menu</t>
+  </si>
+  <si>
+    <t>IO:3987d81f0fe97200d6254c6be1050ecc_unlock</t>
+  </si>
+  <si>
+    <t>Select An User</t>
+  </si>
+  <si>
+    <t>Select Successful</t>
+  </si>
+  <si>
+    <t>349 Milli Sec</t>
+  </si>
+  <si>
+    <t>lookup.IO:3987d81f0fe97200d6254c6be1050ecc</t>
+  </si>
+  <si>
+    <t>756 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passed The RequestNumber</t>
+  </si>
+  <si>
+    <t>//span[@id='sys_user_hide_search']/div/div/input</t>
+  </si>
+  <si>
+    <t>Search for Requests</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Clicked RequestNumber</t>
+  </si>
+  <si>
+    <t>//td[3]/a</t>
+  </si>
+  <si>
+    <t>Click on request Number</t>
+  </si>
+  <si>
+    <t>159 Milli Sec</t>
+  </si>
+  <si>
+    <t>IO:3987d81f0fe97200d6254c6be1050ecc_lock</t>
+  </si>
+  <si>
+    <t>237 Milli Sec</t>
+  </si>
+  <si>
+    <t>Selected VcenterHost</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Select VcenterHost</t>
+  </si>
+  <si>
+    <t>806 Milli Sec</t>
+  </si>
+  <si>
+    <t>33 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked OrderNow</t>
+  </si>
+  <si>
+    <t>oi_order_now_button</t>
+  </si>
+  <si>
+    <t>Place Your order</t>
+  </si>
+  <si>
+    <t>91 Milli Sec</t>
+  </si>
+  <si>
+    <t>86 Milli Sec</t>
+  </si>
+  <si>
+    <t>199 Milli Sec</t>
+  </si>
+  <si>
+    <t>89 Milli Sec</t>
+  </si>
+  <si>
+    <t>user_info_dropdown</t>
+  </si>
+  <si>
+    <t>167 Milli Sec</t>
+  </si>
+  <si>
+    <t>Select ImpersonateUser</t>
+  </si>
+  <si>
+    <t>Impersonate User</t>
+  </si>
+  <si>
+    <t>Choose An User</t>
+  </si>
+  <si>
+    <t>User Select Successful</t>
+  </si>
+  <si>
+    <t>173 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked Search Bar</t>
+  </si>
+  <si>
+    <t>.//*[@id='s2id_autogen1']/a/span[2]/b</t>
+  </si>
+  <si>
+    <t>Slect Search for User</t>
+  </si>
+  <si>
+    <t>190 Milli Sec</t>
+  </si>
+  <si>
+    <t>Passed UserName</t>
+  </si>
+  <si>
+    <t>Maneesh Nama</t>
+  </si>
+  <si>
+    <t>Provide UserName</t>
+  </si>
+  <si>
+    <t>Successfully Provided</t>
+  </si>
+  <si>
+    <t>450 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked SearchLabel</t>
+  </si>
+  <si>
+    <t>select2-result-label</t>
+  </si>
+  <si>
+    <t>Click search for user</t>
+  </si>
+  <si>
+    <t>503 Milli Sec</t>
+  </si>
+  <si>
+    <t>60 Milli Sec</t>
+  </si>
+  <si>
+    <t>34 Milli Sec</t>
+  </si>
+  <si>
+    <t>passed the requests in FilterNavigator</t>
+  </si>
+  <si>
+    <t>Search for requests</t>
+  </si>
+  <si>
+    <t>Succesfully passed</t>
+  </si>
+  <si>
+    <t>Clicked on Service catalog Requests</t>
+  </si>
+  <si>
+    <t>17e0b4990a04bf15013f9590408c419a</t>
+  </si>
+  <si>
+    <t>Click on ServiceCatalog Requests</t>
+  </si>
+  <si>
+    <t>80 Milli Sec</t>
+  </si>
+  <si>
+    <t>//span[@id='sc_request_hide_search']/div/div/input</t>
+  </si>
+  <si>
+    <t>388 Milli Sec</t>
+  </si>
+  <si>
+    <t>REQ0011424</t>
+  </si>
+  <si>
+    <t>96 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicking on Request Number Which contains RITM after replacing REQ to RITM</t>
+  </si>
+  <si>
+    <t>RITM</t>
+  </si>
+  <si>
+    <t>Replace ReqNum</t>
+  </si>
+  <si>
+    <t>7 Sec</t>
+  </si>
+  <si>
+    <t>75 Milli Sec</t>
+  </si>
+  <si>
+    <t>Changed request to approve</t>
+  </si>
+  <si>
+    <t>sc_req_item.approval</t>
+  </si>
+  <si>
+    <t>aprrove status</t>
+  </si>
+  <si>
+    <t>aproved successfully</t>
+  </si>
+  <si>
+    <t>728 Milli Sec</t>
+  </si>
+  <si>
+    <t>Updated form</t>
+  </si>
+  <si>
+    <t>sysverb_update</t>
+  </si>
+  <si>
+    <t>click update button</t>
+  </si>
+  <si>
+    <t>Successfull</t>
+  </si>
+  <si>
+    <t>103 Milli Sec</t>
+  </si>
+  <si>
+    <t>185 Milli Sec</t>
+  </si>
+  <si>
+    <t>Clicked on approval tab on RITM</t>
+  </si>
+  <si>
+    <t>.//*[@id='tabs2_list']/span[3]/span</t>
+  </si>
+  <si>
+    <t>Manager Approval</t>
+  </si>
+  <si>
+    <t>866 Milli Sec</t>
+  </si>
+  <si>
+    <t>41 Milli Sec</t>
+  </si>
+  <si>
+    <t>68 Milli Sec</t>
+  </si>
+  <si>
+    <t>sysapproval_approver.state</t>
+  </si>
+  <si>
+    <t>//form[@id='sysapproval_approver.do']/div/button</t>
+  </si>
+  <si>
+    <t>Clicked on Workflow in RITM Form</t>
+  </si>
+  <si>
+    <t>f590dc04c0a8016400eccedd5249fdb2</t>
+  </si>
+  <si>
+    <t>Show the workflow</t>
+  </si>
+  <si>
+    <t>Workflow clicked Successful</t>
+  </si>
+  <si>
+    <t>957 Milli Sec</t>
+  </si>
+  <si>
+    <t>passed cmdb server list in filternavigator</t>
+  </si>
+  <si>
+    <t>cmdb_ci_server.list</t>
+  </si>
+  <si>
+    <t>pass cmdb server table in search navigator</t>
+  </si>
+  <si>
+    <t>Successfully passed and entered</t>
+  </si>
+  <si>
+    <t>104 Milli Sec</t>
+  </si>
+  <si>
+    <t>383 Milli Sec</t>
+  </si>
+  <si>
+    <t>351 Milli Sec</t>
+  </si>
+  <si>
+    <t>114 Milli Sec</t>
+  </si>
+  <si>
+    <t>667 Milli Sec</t>
+  </si>
+  <si>
+    <t>140 Milli Sec</t>
+  </si>
+  <si>
+    <t>658 Milli Sec</t>
+  </si>
+  <si>
+    <t>126 Milli Sec</t>
+  </si>
+  <si>
+    <t>DEV-LNX-APACHE-91</t>
+  </si>
+  <si>
     <t>133 Milli Sec</t>
   </si>
   <si>
-    <t>Click on Username</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>Username should be clicked</t>
-  </si>
-  <si>
-    <t>UserName clicked successfully</t>
-  </si>
-  <si>
-    <t>271 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passing value in to username</t>
-  </si>
-  <si>
-    <t>maneeshn</t>
-  </si>
-  <si>
-    <t>Username should be entered</t>
-  </si>
-  <si>
-    <t>Username should be passed successfully</t>
-  </si>
-  <si>
-    <t>177 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Password</t>
-  </si>
-  <si>
-    <t>user_password</t>
-  </si>
-  <si>
-    <t>Password should be clicked</t>
-  </si>
-  <si>
-    <t>Password clicked successfully</t>
-  </si>
-  <si>
-    <t>212 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passing value in to Password</t>
-  </si>
-  <si>
-    <t>Maneeshnama@6468</t>
-  </si>
-  <si>
-    <t>Password should be entered</t>
-  </si>
-  <si>
-    <t>Password should be passed successfully</t>
-  </si>
-  <si>
-    <t>273 Milli Sec</t>
-  </si>
-  <si>
-    <t>Click on Login button</t>
-  </si>
-  <si>
-    <t>sysverb_login</t>
-  </si>
-  <si>
-    <t>Login button should be clicked</t>
-  </si>
-  <si>
-    <t>Login button clicked succesfully</t>
-  </si>
-  <si>
-    <t>4 Sec</t>
-  </si>
-  <si>
-    <t>Go To TestSuite Sheet</t>
-  </si>
-  <si>
-    <t>1 Sec</t>
-  </si>
-  <si>
-    <t>Passed AIMS in FilterNavigator</t>
-  </si>
-  <si>
-    <t>filter</t>
-  </si>
-  <si>
-    <t>Find AIMS in search Navigator</t>
-  </si>
-  <si>
-    <t>Search Successful</t>
-  </si>
-  <si>
-    <t>5 Sec</t>
-  </si>
-  <si>
-    <t>clicked on launch Application</t>
-  </si>
-  <si>
-    <t>330b36b5134e7600aee43d7ed144b09a</t>
-  </si>
-  <si>
-    <t>Launch AIMS Application</t>
-  </si>
-  <si>
-    <t>Clicked Successful</t>
-  </si>
-  <si>
-    <t>2 Sec</t>
-  </si>
-  <si>
-    <t>91 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked the UpdateVM</t>
-  </si>
-  <si>
-    <t>.//*[@id='xea03cb9a0ff53600d6254c6be1050e89']/div/div[2]/a[2]</t>
-  </si>
-  <si>
-    <t>Select UpdateVM from AIMS</t>
-  </si>
-  <si>
-    <t>Successfully Selected</t>
-  </si>
-  <si>
-    <t>Type of ServerOperation Field Choosen</t>
-  </si>
-  <si>
-    <t>IO:eba29ee80f0a7e00d6254c6be1050ec2</t>
-  </si>
-  <si>
-    <t>Select Update Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ServerOperation field was successfully selected </t>
-  </si>
-  <si>
-    <t>Selected Project lookup field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:32a1cc970fa97200d6254c6be1050e8d']</t>
-  </si>
-  <si>
-    <t>Hit the Project LookupField</t>
-  </si>
-  <si>
-    <t>Successfully selected</t>
-  </si>
-  <si>
-    <t>405 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected PrimaryDataCenter lookup field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:cbd3081b0fa97200d6254c6be1050e43']</t>
-  </si>
-  <si>
-    <t>Hit the PrimaryDataCenter LookupField</t>
-  </si>
-  <si>
-    <t>PrimaryDataCenterServerOperation field was successfully selected</t>
-  </si>
-  <si>
-    <t>427 Milli Sec</t>
-  </si>
-  <si>
-    <t>Dallas Was Selected</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Choose one PrimarydataCenter</t>
-  </si>
-  <si>
-    <t>120 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected PrimaryCloudPlatform lookup field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:fbb4449b0fa97200d6254c6be1050e58']</t>
-  </si>
-  <si>
-    <t>Hit the PrimaryCloudPlatform LookupField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PrimaryCloudPlatform field was successfully selected </t>
-  </si>
-  <si>
-    <t>699 Milli Sec</t>
-  </si>
-  <si>
-    <t>Choosen PrimaryCloud Field</t>
-  </si>
-  <si>
-    <t>VMWare</t>
-  </si>
-  <si>
-    <t>Choose PrimaryCloud Field</t>
-  </si>
-  <si>
-    <t>260 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected VcenterHost</t>
-  </si>
-  <si>
-    <t>192.168.20.85</t>
-  </si>
-  <si>
-    <t>Select VcenterHost</t>
-  </si>
-  <si>
-    <t>Select Successful</t>
-  </si>
-  <si>
-    <t>330 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected ESXIHOST</t>
-  </si>
-  <si>
-    <t>192.168.10.227</t>
-  </si>
-  <si>
-    <t>Select ESXIHOST</t>
-  </si>
-  <si>
-    <t>348 Milli Sec</t>
-  </si>
-  <si>
-    <t>129 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected cluster field</t>
-  </si>
-  <si>
-    <t>.//*[@id='lookup.IO:ef95dc9b0fe97200d6254c6be1050e4a']</t>
-  </si>
-  <si>
-    <t>click on Cluster Lookup field</t>
-  </si>
-  <si>
-    <t>Successfully hit the field</t>
-  </si>
-  <si>
-    <t>703 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected OpenStack-Aims</t>
-  </si>
-  <si>
-    <t>VMWare-AIMS-CNET-01</t>
-  </si>
-  <si>
-    <t>Select one Cluster</t>
-  </si>
-  <si>
-    <t>Cluster select Successful</t>
-  </si>
-  <si>
-    <t>121 Milli Sec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected Server field </t>
-  </si>
-  <si>
-    <t>//a[@id='lookup.IO:92e0e0570f2d7200d6254c6be1050e8d']</t>
-  </si>
-  <si>
-    <t>click on Server Lookup field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selected DEV-LNX-APACHE-63 </t>
-  </si>
-  <si>
-    <t>DEV-WIN-TOMCAT-84</t>
-  </si>
-  <si>
-    <t>Select One Server</t>
-  </si>
-  <si>
-    <t>Server Select Successful</t>
-  </si>
-  <si>
-    <t>137 Milli Sec</t>
-  </si>
-  <si>
-    <t>Selected Service Size</t>
-  </si>
-  <si>
-    <t>t2.small</t>
-  </si>
-  <si>
-    <t>Select one Size</t>
-  </si>
-  <si>
-    <t>295 Milli Sec</t>
-  </si>
-  <si>
-    <t>Value need to be Selected from the dropdown</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>No value shouldbe selected</t>
-  </si>
-  <si>
-    <t>No value isselected</t>
-  </si>
-  <si>
-    <t>354 Milli Sec</t>
+    <t>343 Milli Sec</t>
+  </si>
+  <si>
+    <t>702 Milli Sec</t>
+  </si>
+  <si>
+    <t>124 Milli Sec</t>
+  </si>
+  <si>
+    <t>257 Milli Sec</t>
+  </si>
+  <si>
+    <t>878 Milli Sec</t>
+  </si>
+  <si>
+    <t>28 Milli Sec</t>
+  </si>
+  <si>
+    <t>201 Milli Sec</t>
+  </si>
+  <si>
+    <t>115 Milli Sec</t>
+  </si>
+  <si>
+    <t>204 Milli Sec</t>
+  </si>
+  <si>
+    <t>255 Milli Sec</t>
+  </si>
+  <si>
+    <t>192 Milli Sec</t>
+  </si>
+  <si>
+    <t>361 Milli Sec</t>
+  </si>
+  <si>
+    <t>435 Milli Sec</t>
+  </si>
+  <si>
+    <t>69 Milli Sec</t>
+  </si>
+  <si>
+    <t>37 Milli Sec</t>
+  </si>
+  <si>
+    <t>100 Milli Sec</t>
+  </si>
+  <si>
+    <t>REQ0011425</t>
+  </si>
+  <si>
+    <t>97 Milli Sec</t>
   </si>
   <si>
     <t>58 Milli Sec</t>
   </si>
   <si>
-    <t>6 Sec</t>
-  </si>
-  <si>
-    <t>Clicked OrderNow</t>
-  </si>
-  <si>
-    <t>oi_order_now_button</t>
-  </si>
-  <si>
-    <t>Place Your order</t>
-  </si>
-  <si>
-    <t>Successful</t>
-  </si>
-  <si>
-    <t>93 Milli Sec</t>
-  </si>
-  <si>
-    <t>41 Milli Sec</t>
-  </si>
-  <si>
-    <t>208 Milli Sec</t>
-  </si>
-  <si>
-    <t>82 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked User Menu</t>
-  </si>
-  <si>
-    <t>user_info_dropdown</t>
-  </si>
-  <si>
-    <t>Select An User</t>
-  </si>
-  <si>
-    <t>174 Milli Sec</t>
-  </si>
-  <si>
-    <t>Select ImpersonateUser</t>
-  </si>
-  <si>
-    <t>Impersonate User</t>
-  </si>
-  <si>
-    <t>Choose An User</t>
-  </si>
-  <si>
-    <t>User Select Successful</t>
-  </si>
-  <si>
-    <t>203 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked Search Bar</t>
-  </si>
-  <si>
-    <t>.//*[@id='s2id_autogen1']/a/span[2]/b</t>
-  </si>
-  <si>
-    <t>Slect Search for User</t>
-  </si>
-  <si>
-    <t>388 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passed UserName</t>
-  </si>
-  <si>
-    <t>Maneesh Nama</t>
-  </si>
-  <si>
-    <t>Provide UserName</t>
-  </si>
-  <si>
-    <t>Successfully Provided</t>
-  </si>
-  <si>
-    <t>437 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked SearchLabel</t>
-  </si>
-  <si>
-    <t>select2-result-label</t>
-  </si>
-  <si>
-    <t>Click search for user</t>
-  </si>
-  <si>
-    <t>406 Milli Sec</t>
-  </si>
-  <si>
-    <t>55 Milli Sec</t>
-  </si>
-  <si>
-    <t>32 Milli Sec</t>
-  </si>
-  <si>
-    <t>passed the requests in FilterNavigator</t>
-  </si>
-  <si>
-    <t>Search for requests</t>
-  </si>
-  <si>
-    <t>Succesfully passed</t>
-  </si>
-  <si>
-    <t>7 Sec</t>
-  </si>
-  <si>
-    <t>Clicked on Service catalog Requests</t>
-  </si>
-  <si>
-    <t>17e0b4990a04bf15013f9590408c419a</t>
-  </si>
-  <si>
-    <t>Click on ServiceCatalog Requests</t>
-  </si>
-  <si>
-    <t>96 Milli Sec</t>
-  </si>
-  <si>
-    <t>Passed The RequestNumber</t>
-  </si>
-  <si>
-    <t>//span[@id='sc_request_hide_search']/div/div/input</t>
-  </si>
-  <si>
-    <t>Search for Requests</t>
-  </si>
-  <si>
-    <t>434 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked RequestNumber</t>
-  </si>
-  <si>
-    <t>REQ0011182</t>
-  </si>
-  <si>
-    <t>Click on request Number</t>
-  </si>
-  <si>
-    <t>107 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicking on Request Number Which contains RITM after replacing REQ to RITM</t>
-  </si>
-  <si>
-    <t>RITM0011201</t>
-  </si>
-  <si>
-    <t>Replace ReqNum</t>
-  </si>
-  <si>
-    <t>95 Milli Sec</t>
-  </si>
-  <si>
-    <t>Changed request to approve</t>
-  </si>
-  <si>
-    <t>sc_req_item.approval</t>
-  </si>
-  <si>
-    <t>aprrove status</t>
-  </si>
-  <si>
-    <t>aproved successfully</t>
-  </si>
-  <si>
-    <t>710 Milli Sec</t>
-  </si>
-  <si>
-    <t>Updated form</t>
-  </si>
-  <si>
-    <t>sysverb_update</t>
-  </si>
-  <si>
-    <t>click update button</t>
-  </si>
-  <si>
-    <t>Successfull</t>
-  </si>
-  <si>
-    <t>176 Milli Sec</t>
-  </si>
-  <si>
-    <t>Replaced he request from REQ to RITM</t>
-  </si>
-  <si>
-    <t>Replace RITM</t>
-  </si>
-  <si>
     <t>78 Milli Sec</t>
   </si>
   <si>
-    <t>Clicked on approval tab on RITM</t>
-  </si>
-  <si>
-    <t>.//*[@id='tabs2_list']/span[3]/span</t>
-  </si>
-  <si>
-    <t>Manager Approval</t>
-  </si>
-  <si>
-    <t>842 Milli Sec</t>
-  </si>
-  <si>
-    <t>90 Milli Sec</t>
-  </si>
-  <si>
-    <t>8 Sec</t>
-  </si>
-  <si>
-    <t>sysapproval_approver.state</t>
-  </si>
-  <si>
-    <t>//form[@id='sysapproval_approver.do']/div/button</t>
-  </si>
-  <si>
-    <t>713 Milli Sec</t>
-  </si>
-  <si>
-    <t>Clicked on Workflow in RITM Form</t>
-  </si>
-  <si>
-    <t>f590dc04c0a8016400eccedd5249fdb2</t>
-  </si>
-  <si>
-    <t>Show the workflow</t>
-  </si>
-  <si>
-    <t>Workflow clicked Successful</t>
-  </si>
-  <si>
-    <t>534 Milli Sec</t>
-  </si>
-  <si>
-    <t>passed cmdb server list in filternavigator</t>
-  </si>
-  <si>
-    <t>cmdb_ci_server.list</t>
-  </si>
-  <si>
-    <t>pass cmdb server table in search navigator</t>
-  </si>
-  <si>
-    <t>Successfully passed and entered</t>
+    <t>745 Milli Sec</t>
+  </si>
+  <si>
+    <t>102 Milli Sec</t>
+  </si>
+  <si>
+    <t>297 Milli Sec</t>
+  </si>
+  <si>
+    <t>10 Sec</t>
+  </si>
+  <si>
+    <t>63 Milli Sec</t>
+  </si>
+  <si>
+    <t>81 Milli Sec</t>
+  </si>
+  <si>
+    <t>997 Milli Sec</t>
   </si>
 </sst>
 </file>
@@ -719,13 +816,63 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="47">
+  <fonts count="57">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1077,7 +1224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1135,7 +1282,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="true"/>
@@ -1147,9 +1298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1171,11 +1319,11 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1198,11 +1346,11 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,7 +1373,37 @@
     <xf numFmtId="0" fontId="45" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="46" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="11" borderId="2" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1294,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="n" s="2">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="2">
@@ -1302,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1425,22 +1603,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n" s="23">
+      <c r="A4" t="n">
         <v>3.0</v>
       </c>
-      <c r="B4" t="s" s="24">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s" s="25">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="26">
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s" s="27">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s" s="28">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
       <c r="G4" t="s" s="21">
@@ -1448,6 +1626,32 @@
       </c>
       <c r="H4" t="s" s="22">
         <v>24</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s" s="27">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="28">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s" s="29">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s" s="30">
+        <v>26</v>
+      </c>
+      <c r="G5" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s" s="24">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1476,6 +1680,14 @@
     <hyperlink location="'ATU_TC_3'!A1" ref="F4"/>
     <hyperlink location="'ATU_TC_3'!A1" ref="G4"/>
     <hyperlink location="'ATU_TC_3'!A1" ref="H4"/>
+    <hyperlink location="'ATU_TC_4'!A1" ref="A5"/>
+    <hyperlink location="'ATU_TC_4'!A1" ref="B5"/>
+    <hyperlink location="'ATU_TC_4'!A1" ref="C5"/>
+    <hyperlink location="'ATU_TC_4'!A1" ref="D5"/>
+    <hyperlink location="'ATU_TC_4'!A1" ref="E5"/>
+    <hyperlink location="'ATU_TC_4'!A1" ref="F5"/>
+    <hyperlink location="'ATU_TC_4'!A1" ref="G5"/>
+    <hyperlink location="'ATU_TC_4'!A1" ref="H5"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1501,29 +1713,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="31">
+      <c r="A1" t="s" s="33">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="32">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="33">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s" s="34">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="35">
+      <c r="B1" t="s" s="34">
         <v>28</v>
       </c>
-      <c r="F1" t="s" s="36">
+      <c r="C1" t="s" s="35">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="36">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="37">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s" s="38">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="37">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s" s="38">
-        <v>30</v>
+      <c r="G1" t="s" s="39">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s" s="40">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -1531,22 +1743,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2"/>
     </row>
@@ -1555,22 +1767,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3"/>
     </row>
@@ -1579,22 +1791,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4"/>
     </row>
@@ -1603,22 +1815,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5"/>
     </row>
@@ -1627,22 +1839,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6"/>
     </row>
@@ -1651,22 +1863,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7"/>
     </row>
@@ -1675,28 +1887,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H8"/>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="39">
-        <v>66</v>
+      <c r="A9" t="s" s="41">
+        <v>69</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -1737,29 +1949,29 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="40">
+      <c r="A1" t="s" s="42">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="41">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="42">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s" s="43">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="44">
+      <c r="B1" t="s" s="43">
         <v>28</v>
       </c>
-      <c r="F1" t="s" s="45">
+      <c r="C1" t="s" s="44">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="45">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="46">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s" s="47">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="46">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s" s="47">
-        <v>30</v>
+      <c r="G1" t="s" s="48">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s" s="49">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -1767,22 +1979,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2"/>
     </row>
@@ -1791,22 +2003,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3"/>
     </row>
@@ -1815,22 +2027,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4"/>
     </row>
@@ -1839,22 +2051,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5"/>
     </row>
@@ -1863,22 +2075,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6"/>
     </row>
@@ -1887,22 +2099,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H7"/>
     </row>
@@ -1911,22 +2123,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H8"/>
     </row>
@@ -1935,22 +2147,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H9"/>
     </row>
@@ -1959,22 +2171,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H10"/>
     </row>
@@ -1983,22 +2195,22 @@
         <v>10.0</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H11"/>
     </row>
@@ -2007,22 +2219,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H12"/>
     </row>
@@ -2031,22 +2243,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H13"/>
     </row>
@@ -2055,22 +2267,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H14"/>
     </row>
@@ -2079,22 +2291,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H15"/>
     </row>
@@ -2103,22 +2315,22 @@
         <v>15.0</v>
       </c>
       <c r="B16" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H16"/>
     </row>
@@ -2127,22 +2339,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H17"/>
     </row>
@@ -2151,22 +2363,22 @@
         <v>17.0</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H18"/>
     </row>
@@ -2175,22 +2387,22 @@
         <v>18.0</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E19" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H19"/>
     </row>
@@ -2199,22 +2411,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E20" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H20"/>
     </row>
@@ -2223,22 +2435,22 @@
         <v>20.0</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H21"/>
     </row>
@@ -2247,22 +2459,22 @@
         <v>21.0</v>
       </c>
       <c r="B22" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="G22" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H22"/>
     </row>
@@ -2271,22 +2483,22 @@
         <v>22.0</v>
       </c>
       <c r="B23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
         <v>134</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>135</v>
       </c>
-      <c r="E23" t="s">
-        <v>136</v>
-      </c>
       <c r="F23" t="s">
-        <v>67</v>
+        <v>138</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H23"/>
     </row>
@@ -2295,22 +2507,22 @@
         <v>23.0</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F24" t="s">
-        <v>137</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H24"/>
     </row>
@@ -2319,22 +2531,22 @@
         <v>24.0</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="C25" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E25" t="s">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="F25" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H25"/>
     </row>
@@ -2343,22 +2555,22 @@
         <v>25.0</v>
       </c>
       <c r="B26" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
         <v>146</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H26"/>
     </row>
@@ -2367,22 +2579,22 @@
         <v>26.0</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="C27" t="s">
-        <v>37</v>
+        <v>147</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="F27" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H27"/>
     </row>
@@ -2391,22 +2603,22 @@
         <v>27.0</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="F28" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H28"/>
     </row>
@@ -2415,22 +2627,22 @@
         <v>28.0</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H29"/>
     </row>
@@ -2439,22 +2651,22 @@
         <v>29.0</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H30"/>
     </row>
@@ -2463,22 +2675,22 @@
         <v>30.0</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H31"/>
     </row>
@@ -2487,22 +2699,22 @@
         <v>31.0</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H32"/>
     </row>
@@ -2511,22 +2723,22 @@
         <v>32.0</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H33"/>
     </row>
@@ -2535,22 +2747,22 @@
         <v>33.0</v>
       </c>
       <c r="B34" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
         <v>160</v>
       </c>
       <c r="G34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H34"/>
     </row>
@@ -2559,22 +2771,22 @@
         <v>34.0</v>
       </c>
       <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
         <v>161</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
         <v>162</v>
       </c>
-      <c r="D35" t="s">
-        <v>163</v>
-      </c>
-      <c r="E35" t="s">
-        <v>164</v>
-      </c>
-      <c r="F35" t="s">
-        <v>165</v>
-      </c>
       <c r="G35" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H35"/>
     </row>
@@ -2583,22 +2795,22 @@
         <v>35.0</v>
       </c>
       <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" t="s">
         <v>166</v>
       </c>
-      <c r="C36" t="s">
+      <c r="F36" t="s">
         <v>167</v>
       </c>
-      <c r="D36" t="s">
-        <v>168</v>
-      </c>
-      <c r="E36" t="s">
-        <v>152</v>
-      </c>
-      <c r="F36" t="s">
-        <v>169</v>
-      </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H36"/>
     </row>
@@ -2607,22 +2819,22 @@
         <v>36.0</v>
       </c>
       <c r="B37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" t="s">
         <v>170</v>
       </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
         <v>171</v>
       </c>
-      <c r="D37" t="s">
-        <v>172</v>
-      </c>
-      <c r="E37" t="s">
-        <v>173</v>
-      </c>
-      <c r="F37" t="s">
-        <v>174</v>
-      </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H37"/>
     </row>
@@ -2631,22 +2843,22 @@
         <v>37.0</v>
       </c>
       <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" t="s">
         <v>175</v>
       </c>
-      <c r="C38" t="s">
+      <c r="F38" t="s">
         <v>176</v>
       </c>
-      <c r="D38" t="s">
-        <v>177</v>
-      </c>
-      <c r="E38" t="s">
-        <v>152</v>
-      </c>
-      <c r="F38" t="s">
-        <v>178</v>
-      </c>
       <c r="G38" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H38"/>
     </row>
@@ -2655,22 +2867,22 @@
         <v>38.0</v>
       </c>
       <c r="B39" t="s">
-        <v>36</v>
+        <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>37</v>
+        <v>178</v>
       </c>
       <c r="D39" t="s">
-        <v>38</v>
+        <v>179</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F39" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H39"/>
     </row>
@@ -2679,22 +2891,22 @@
         <v>39.0</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F40" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H40"/>
     </row>
@@ -2703,22 +2915,22 @@
         <v>40.0</v>
       </c>
       <c r="B41" t="s">
-        <v>181</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s">
         <v>182</v>
       </c>
-      <c r="E41" t="s">
-        <v>183</v>
-      </c>
-      <c r="F41" t="s">
-        <v>184</v>
-      </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H41"/>
     </row>
@@ -2727,22 +2939,22 @@
         <v>41.0</v>
       </c>
       <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" t="s">
         <v>185</v>
       </c>
-      <c r="C42" t="s">
-        <v>186</v>
-      </c>
-      <c r="D42" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" t="s">
-        <v>152</v>
-      </c>
       <c r="F42" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H42"/>
     </row>
@@ -2751,22 +2963,22 @@
         <v>42.0</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>186</v>
       </c>
       <c r="C43" t="s">
-        <v>37</v>
+        <v>187</v>
       </c>
       <c r="D43" t="s">
-        <v>38</v>
+        <v>188</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F43" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H43"/>
     </row>
@@ -2775,22 +2987,22 @@
         <v>43.0</v>
       </c>
       <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
         <v>189</v>
       </c>
-      <c r="C44" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" t="s">
-        <v>191</v>
-      </c>
-      <c r="E44" t="s">
-        <v>152</v>
-      </c>
-      <c r="F44" t="s">
-        <v>192</v>
-      </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H44"/>
     </row>
@@ -2799,22 +3011,22 @@
         <v>44.0</v>
       </c>
       <c r="B45" t="s">
-        <v>193</v>
+        <v>139</v>
       </c>
       <c r="C45" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D45" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="E45" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H45"/>
     </row>
@@ -2823,22 +3035,22 @@
         <v>45.0</v>
       </c>
       <c r="B46" t="s">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="C46" t="s">
-        <v>37</v>
+        <v>192</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
+        <v>68</v>
       </c>
       <c r="G46" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H46"/>
     </row>
@@ -2847,22 +3059,22 @@
         <v>46.0</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="G47" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H47"/>
     </row>
@@ -2871,22 +3083,22 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="s">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="E48" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="G48" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H48"/>
     </row>
@@ -2895,22 +3107,22 @@
         <v>48.0</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="C49" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F49" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H49"/>
     </row>
@@ -2919,22 +3131,22 @@
         <v>49.0</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="C50" t="s">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="D50" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="E50" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H50"/>
     </row>
@@ -2943,22 +3155,22 @@
         <v>50.0</v>
       </c>
       <c r="B51" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C51" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D51" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="E51" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
+        <v>203</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H51"/>
     </row>
@@ -2967,22 +3179,22 @@
         <v>51.0</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>204</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>206</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H52"/>
     </row>
@@ -2991,22 +3203,22 @@
         <v>52.0</v>
       </c>
       <c r="B53" t="s">
-        <v>211</v>
+        <v>39</v>
       </c>
       <c r="C53" t="s">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>208</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H53"/>
     </row>
@@ -3015,22 +3227,22 @@
         <v>53.0</v>
       </c>
       <c r="B54" t="s">
-        <v>36</v>
+        <v>194</v>
       </c>
       <c r="C54" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="D54" t="s">
-        <v>38</v>
+        <v>196</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F54" t="s">
-        <v>213</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H54"/>
     </row>
@@ -3039,22 +3251,22 @@
         <v>54.0</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="C55" t="s">
-        <v>215</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>152</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H55"/>
     </row>
@@ -3063,22 +3275,22 @@
         <v>55.0</v>
       </c>
       <c r="B56" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="C56" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="D56" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F56" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G56" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H56"/>
     </row>
@@ -3087,22 +3299,22 @@
         <v>56.0</v>
       </c>
       <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
         <v>214</v>
       </c>
-      <c r="C57" t="s">
-        <v>215</v>
-      </c>
-      <c r="D57" t="s">
-        <v>216</v>
-      </c>
-      <c r="E57" t="s">
-        <v>152</v>
-      </c>
-      <c r="F57" t="s">
-        <v>219</v>
-      </c>
       <c r="G57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H57"/>
     </row>
@@ -3111,22 +3323,22 @@
         <v>57.0</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="C58" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F58" t="s">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="G58" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H58"/>
     </row>
@@ -3135,22 +3347,22 @@
         <v>58.0</v>
       </c>
       <c r="B59" t="s">
-        <v>201</v>
+        <v>39</v>
       </c>
       <c r="C59" t="s">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="G59" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H59"/>
     </row>
@@ -3159,22 +3371,22 @@
         <v>59.0</v>
       </c>
       <c r="B60" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C60" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E60" t="s">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="F60" t="s">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H60"/>
     </row>
@@ -3183,22 +3395,22 @@
         <v>60.0</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>210</v>
       </c>
       <c r="C61" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="D61" t="s">
-        <v>38</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="F61" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="G61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H61"/>
     </row>
@@ -3207,22 +3419,22 @@
         <v>61.0</v>
       </c>
       <c r="B62" t="s">
-        <v>223</v>
+        <v>39</v>
       </c>
       <c r="C62" t="s">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
-        <v>225</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>226</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H62"/>
     </row>
@@ -3231,22 +3443,22 @@
         <v>62.0</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>218</v>
       </c>
       <c r="C63" t="s">
-        <v>37</v>
+        <v>219</v>
       </c>
       <c r="D63" t="s">
-        <v>38</v>
+        <v>220</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
+        <v>222</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H63"/>
     </row>
@@ -3255,43 +3467,67 @@
         <v>63.0</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>39</v>
       </c>
       <c r="C64" t="s">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>231</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H64"/>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="48">
-        <v>66</v>
-      </c>
-      <c r="B65"/>
-      <c r="C65"/>
-      <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" t="s">
+        <v>38</v>
+      </c>
       <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="50">
+        <v>69</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A65:H65"/>
+    <mergeCell ref="A66:H66"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink location="'TestSuite'!A1" ref="A65"/>
+    <hyperlink location="'TestSuite'!A1" ref="A66"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3317,34 +3553,1638 @@
   </cols>
   <sheetData>
     <row r="1" ht="21.0" customHeight="true">
-      <c r="A1" t="s" s="49">
+      <c r="A1" t="s" s="51">
         <v>4</v>
       </c>
-      <c r="B1" t="s" s="50">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s" s="51">
+      <c r="B1" t="s" s="52">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s" s="53">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="54">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="55">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s" s="56">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s" s="57">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s" s="58">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" t="s" s="52">
-        <v>27</v>
-      </c>
-      <c r="E1" t="s" s="53">
+      <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G12" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D16" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" t="s">
+        <v>233</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17.0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>234</v>
+      </c>
+      <c r="G18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18.0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>123</v>
+      </c>
+      <c r="C19" t="s">
+        <v>124</v>
+      </c>
+      <c r="D19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19.0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C20" t="s">
+        <v>235</v>
+      </c>
+      <c r="D20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" t="s">
+        <v>236</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G22" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C23" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" t="s">
+        <v>238</v>
+      </c>
+      <c r="G23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>142</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" t="s">
+        <v>142</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
+        <v>240</v>
+      </c>
+      <c r="G27" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D28" t="s">
+        <v>151</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
+        <v>156</v>
+      </c>
+      <c r="E30" t="s">
+        <v>142</v>
+      </c>
+      <c r="F30" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H31"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s">
+        <v>153</v>
+      </c>
+      <c r="G32" t="s">
+        <v>38</v>
+      </c>
+      <c r="H32"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H33"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
+        <v>245</v>
+      </c>
+      <c r="G35" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>163</v>
+      </c>
+      <c r="C36" t="s">
+        <v>164</v>
+      </c>
+      <c r="D36" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" t="s">
+        <v>166</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>142</v>
+      </c>
+      <c r="F37" t="s">
+        <v>247</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H37"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" t="s">
+        <v>173</v>
+      </c>
+      <c r="D38" t="s">
+        <v>174</v>
+      </c>
+      <c r="E38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F38" t="s">
+        <v>248</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" t="s">
+        <v>178</v>
+      </c>
+      <c r="D39" t="s">
+        <v>179</v>
+      </c>
+      <c r="E39" t="s">
+        <v>142</v>
+      </c>
+      <c r="F39" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="H39"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" t="s">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s">
+        <v>250</v>
+      </c>
+      <c r="G40" t="s">
+        <v>38</v>
+      </c>
+      <c r="H40"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F41" t="s">
+        <v>251</v>
+      </c>
+      <c r="G41" t="s">
+        <v>38</v>
+      </c>
+      <c r="H41"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>183</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+      <c r="D42" t="s">
+        <v>184</v>
+      </c>
+      <c r="E42" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+      <c r="H42"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>186</v>
+      </c>
+      <c r="C43" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" t="s">
+        <v>142</v>
+      </c>
+      <c r="F43" t="s">
+        <v>94</v>
+      </c>
+      <c r="G43" t="s">
+        <v>38</v>
+      </c>
+      <c r="H43"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
+        <v>252</v>
+      </c>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>142</v>
+      </c>
+      <c r="F45" t="s">
+        <v>99</v>
+      </c>
+      <c r="G45" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" t="s">
+        <v>253</v>
+      </c>
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E46" t="s">
+        <v>142</v>
+      </c>
+      <c r="F46" t="s">
+        <v>68</v>
+      </c>
+      <c r="G46" t="s">
+        <v>38</v>
+      </c>
+      <c r="H46"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" t="s">
+        <v>41</v>
+      </c>
+      <c r="E47" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" t="s">
+        <v>254</v>
+      </c>
+      <c r="G47" t="s">
+        <v>38</v>
+      </c>
+      <c r="H47"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48" t="s">
+        <v>255</v>
+      </c>
+      <c r="G48" t="s">
+        <v>38</v>
+      </c>
+      <c r="H48"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" t="s">
+        <v>196</v>
+      </c>
+      <c r="E49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F49" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" t="s">
+        <v>38</v>
+      </c>
+      <c r="H49"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" t="s">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>256</v>
+      </c>
+      <c r="G50" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" t="s">
+        <v>202</v>
+      </c>
+      <c r="F51" t="s">
+        <v>257</v>
+      </c>
+      <c r="G51" t="s">
+        <v>38</v>
+      </c>
+      <c r="H51"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52" t="s">
+        <v>207</v>
+      </c>
+      <c r="F52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>38</v>
+      </c>
+      <c r="H52"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52.0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>41</v>
+      </c>
+      <c r="E53" t="s">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s">
+        <v>189</v>
+      </c>
+      <c r="G53" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53.0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" t="s">
+        <v>196</v>
+      </c>
+      <c r="E54" t="s">
+        <v>142</v>
+      </c>
+      <c r="F54" t="s">
+        <v>88</v>
+      </c>
+      <c r="G54" t="s">
+        <v>38</v>
+      </c>
+      <c r="H54"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54.0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" t="s">
+        <v>40</v>
+      </c>
+      <c r="D55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" t="s">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s">
+        <v>258</v>
+      </c>
+      <c r="G55" t="s">
+        <v>38</v>
+      </c>
+      <c r="H55"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55.0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" t="s">
+        <v>211</v>
+      </c>
+      <c r="D56" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" t="s">
+        <v>142</v>
+      </c>
+      <c r="F56" t="s">
+        <v>259</v>
+      </c>
+      <c r="G56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H56"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E57" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57" t="s">
+        <v>38</v>
+      </c>
+      <c r="H57"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57.0</v>
+      </c>
+      <c r="B58" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" t="s">
+        <v>211</v>
+      </c>
+      <c r="D58" t="s">
+        <v>212</v>
+      </c>
+      <c r="E58" t="s">
+        <v>142</v>
+      </c>
+      <c r="F58" t="s">
+        <v>260</v>
+      </c>
+      <c r="G58" t="s">
+        <v>38</v>
+      </c>
+      <c r="H58"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58.0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s">
+        <v>261</v>
+      </c>
+      <c r="G59" t="s">
+        <v>38</v>
+      </c>
+      <c r="H59"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59.0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>199</v>
+      </c>
+      <c r="C60" t="s">
+        <v>216</v>
+      </c>
+      <c r="D60" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" t="s">
+        <v>94</v>
+      </c>
+      <c r="G60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H60"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>210</v>
+      </c>
+      <c r="C61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>212</v>
+      </c>
+      <c r="E61" t="s">
+        <v>142</v>
+      </c>
+      <c r="F61" t="s">
+        <v>88</v>
+      </c>
+      <c r="G61" t="s">
+        <v>38</v>
+      </c>
+      <c r="H61"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" t="s">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s">
+        <v>262</v>
+      </c>
+      <c r="G62" t="s">
+        <v>38</v>
+      </c>
+      <c r="H62"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" t="s">
+        <v>219</v>
+      </c>
+      <c r="D63" t="s">
+        <v>220</v>
+      </c>
+      <c r="E63" t="s">
+        <v>221</v>
+      </c>
+      <c r="F63" t="s">
+        <v>263</v>
+      </c>
+      <c r="G63" t="s">
+        <v>38</v>
+      </c>
+      <c r="H63"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" t="s">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s">
+        <v>94</v>
+      </c>
+      <c r="G64" t="s">
+        <v>38</v>
+      </c>
+      <c r="H64"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>223</v>
+      </c>
+      <c r="C65" t="s">
+        <v>224</v>
+      </c>
+      <c r="D65" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" t="s">
+        <v>226</v>
+      </c>
+      <c r="F65" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" t="s">
+        <v>38</v>
+      </c>
+      <c r="H65"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="59">
+        <v>69</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A66:H66"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink location="'TestSuite'!A1" ref="A66"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor indexed="17"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="2" max="2" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="14.53125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="12.24609375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="11.33984375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.00390625" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="21.0" customHeight="true">
+      <c r="A1" t="s" s="60">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s" s="61">
         <v>28</v>
       </c>
-      <c r="F1" t="s" s="54">
+      <c r="C1" t="s" s="62">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s" s="63">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="64">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s" s="65">
         <v>9</v>
       </c>
-      <c r="G1" t="s" s="55">
-        <v>29</v>
-      </c>
-      <c r="H1" t="s" s="56">
-        <v>30</v>
+      <c r="G1" t="s" s="66">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s" s="67">
+        <v>33</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="57">
-        <v>66</v>
+      <c r="A2" t="s" s="68">
+        <v>69</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
